--- a/database/industries/ghaza/gheshahdab/product/yearly.xlsx
+++ b/database/industries/ghaza/gheshahdab/product/yearly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\ghaza\gheshahdab\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghaza\gheshahdab\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FCF5D9A-14C5-4DAD-9CF7-FFD02AECBF21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="31">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>غشهداب-کشت و صنعت شهداب ناب خراسان</t>
@@ -57,6 +58,12 @@
     <t>تن</t>
   </si>
   <si>
+    <t>گروه رب</t>
+  </si>
+  <si>
+    <t>گروه سس</t>
+  </si>
+  <si>
     <t>سایر / تخفیفات</t>
   </si>
   <si>
@@ -106,24 +113,12 @@
   </si>
   <si>
     <t>سود ناخالص</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> رب</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> سس</t>
-  </si>
-  <si>
-    <t>رب</t>
-  </si>
-  <si>
-    <t>سس</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -293,7 +288,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -305,7 +300,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -352,6 +347,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -387,6 +399,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -538,12 +567,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I88"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -686,7 +713,7 @@
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>11</v>
@@ -710,7 +737,7 @@
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>11</v>
@@ -734,21 +761,21 @@
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I13" s="11">
         <v>0</v>
@@ -756,7 +783,7 @@
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>11</v>
@@ -772,55 +799,55 @@
         <v>37897</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I16" s="9">
         <v>1250</v>
@@ -828,31 +855,31 @@
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
@@ -904,7 +931,7 @@
     </row>
     <row r="22" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B22" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -960,7 +987,7 @@
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>11</v>
@@ -984,7 +1011,7 @@
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>11</v>
@@ -1008,14 +1035,14 @@
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F27" s="11">
         <v>0</v>
@@ -1024,20 +1051,20 @@
         <v>0</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
       <c r="E28" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F28" s="9">
         <v>0</v>
@@ -1046,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I28" s="9">
         <v>0</v>
@@ -1054,7 +1081,7 @@
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>11</v>
@@ -1073,52 +1100,52 @@
         <v>0</v>
       </c>
       <c r="I29" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>11</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I31" s="11">
         <v>1250</v>
@@ -1126,31 +1153,31 @@
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
@@ -1202,7 +1229,7 @@
     </row>
     <row r="37" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B37" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
@@ -1237,7 +1264,7 @@
         <v>10</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9">
@@ -1258,10 +1285,10 @@
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11">
@@ -1282,10 +1309,10 @@
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="8" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9">
@@ -1306,14 +1333,14 @@
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F42" s="11">
         <v>0</v>
@@ -1322,22 +1349,22 @@
         <v>0</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F43" s="9">
         <v>0</v>
@@ -1346,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I43" s="9">
         <v>0</v>
@@ -1354,10 +1381,10 @@
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="11">
@@ -1373,52 +1400,52 @@
         <v>0</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H45" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D46" s="11"/>
       <c r="E46" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I46" s="11">
         <v>27507</v>
@@ -1426,31 +1453,31 @@
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C48" s="15"/>
       <c r="D48" s="15"/>
@@ -1502,7 +1529,7 @@
     </row>
     <row r="52" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B52" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -1537,7 +1564,7 @@
         <v>10</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D54" s="9"/>
       <c r="E54" s="9">
@@ -1558,10 +1585,10 @@
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11">
@@ -1582,10 +1609,10 @@
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="8" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D56" s="9"/>
       <c r="E56" s="9">
@@ -1606,14 +1633,14 @@
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F57" s="11">
         <v>0</v>
@@ -1622,22 +1649,22 @@
         <v>0</v>
       </c>
       <c r="H57" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I57" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D58" s="9"/>
       <c r="E58" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F58" s="9">
         <v>0</v>
@@ -1646,18 +1673,18 @@
         <v>0</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I58" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D59" s="11"/>
       <c r="E59" s="11">
@@ -1673,52 +1700,52 @@
         <v>0</v>
       </c>
       <c r="I59" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D60" s="9"/>
       <c r="E60" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H60" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I60" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D61" s="11"/>
       <c r="E61" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G61" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H61" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I61" s="11">
         <v>22005600</v>
@@ -1726,26 +1753,26 @@
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" s="8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D62" s="9"/>
       <c r="E62" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H62" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I62" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
@@ -1780,7 +1807,7 @@
     </row>
     <row r="66" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B66" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
@@ -1815,11 +1842,11 @@
         <v>10</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D68" s="9"/>
       <c r="E68" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F68" s="9">
         <v>-11509</v>
@@ -1836,14 +1863,14 @@
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D69" s="11"/>
       <c r="E69" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F69" s="11">
         <v>-941220</v>
@@ -1860,14 +1887,14 @@
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="8" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D70" s="9"/>
       <c r="E70" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F70" s="9">
         <v>-393473</v>
@@ -1884,14 +1911,14 @@
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F71" s="11">
         <v>0</v>
@@ -1900,22 +1927,22 @@
         <v>0</v>
       </c>
       <c r="H71" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I71" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D72" s="9"/>
       <c r="E72" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F72" s="9">
         <v>0</v>
@@ -1924,7 +1951,7 @@
         <v>0</v>
       </c>
       <c r="H72" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I72" s="9">
         <v>0</v>
@@ -1932,14 +1959,14 @@
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" s="10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D73" s="11"/>
       <c r="E73" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F73" s="11">
         <v>-168332</v>
@@ -1951,28 +1978,28 @@
         <v>0</v>
       </c>
       <c r="I73" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D74" s="9"/>
       <c r="E74" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G74" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H74" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I74" s="9">
         <v>-9858</v>
@@ -1980,7 +2007,7 @@
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" s="14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C75" s="15"/>
       <c r="D75" s="15"/>
@@ -2032,7 +2059,7 @@
     </row>
     <row r="79" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B79" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
@@ -2067,11 +2094,11 @@
         <v>10</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D81" s="9"/>
       <c r="E81" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F81" s="9">
         <v>2301</v>
@@ -2088,14 +2115,14 @@
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B82" s="10" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D82" s="11"/>
       <c r="E82" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F82" s="11">
         <v>203213</v>
@@ -2112,14 +2139,14 @@
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B83" s="8" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D83" s="9"/>
       <c r="E83" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F83" s="9">
         <v>165794</v>
@@ -2136,47 +2163,47 @@
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" s="10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D84" s="11"/>
       <c r="E84" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F84" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G84" s="11">
         <v>0</v>
       </c>
       <c r="H84" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I84" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B85" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G85" s="9">
         <v>0</v>
       </c>
       <c r="H85" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I85" s="9">
         <v>0</v>
@@ -2184,14 +2211,14 @@
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B86" s="10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D86" s="11"/>
       <c r="E86" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F86" s="11">
         <v>124668</v>
@@ -2203,28 +2230,28 @@
         <v>0</v>
       </c>
       <c r="I86" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B87" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D87" s="9"/>
       <c r="E87" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G87" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H87" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I87" s="9">
         <v>17649</v>
@@ -2232,7 +2259,7 @@
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B88" s="14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C88" s="15"/>
       <c r="D88" s="15"/>

--- a/database/industries/ghaza/gheshahdab/product/yearly.xlsx
+++ b/database/industries/ghaza/gheshahdab/product/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghaza\gheshahdab\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghaza\gheshahdab\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FCF5D9A-14C5-4DAD-9CF7-FFD02AECBF21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E45C9E-11A3-44AF-9C15-E3AB398FE585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -572,12 +572,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -587,7 +587,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -599,7 +599,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -611,7 +611,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -621,7 +621,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -633,7 +633,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -645,7 +645,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -655,7 +655,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -677,7 +677,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -687,7 +687,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -711,7 +711,7 @@
         <v>2535</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
@@ -735,7 +735,7 @@
         <v>13563</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>13</v>
       </c>
@@ -759,7 +759,7 @@
         <v>10767</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>14</v>
       </c>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>16</v>
       </c>
@@ -805,7 +805,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>17</v>
       </c>
@@ -829,7 +829,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>18</v>
       </c>
@@ -853,7 +853,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>19</v>
       </c>
@@ -877,7 +877,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
         <v>20</v>
       </c>
@@ -899,7 +899,7 @@
         <v>28115</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -909,7 +909,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -919,7 +919,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -929,7 +929,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B22" s="7" t="s">
         <v>21</v>
       </c>
@@ -951,7 +951,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -961,7 +961,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
         <v>10</v>
       </c>
@@ -985,7 +985,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>12</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>19761</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
         <v>13</v>
       </c>
@@ -1033,7 +1033,7 @@
         <v>10808</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>22</v>
       </c>
@@ -1057,7 +1057,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
         <v>14</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
         <v>16</v>
       </c>
@@ -1103,7 +1103,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
         <v>17</v>
       </c>
@@ -1127,7 +1127,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>18</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="8" t="s">
         <v>19</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="14" t="s">
         <v>20</v>
       </c>
@@ -1197,7 +1197,7 @@
         <v>33038</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1207,7 +1207,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1217,7 +1217,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1227,7 +1227,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B37" s="7" t="s">
         <v>24</v>
       </c>
@@ -1249,7 +1249,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1259,7 +1259,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>10</v>
       </c>
@@ -1283,7 +1283,7 @@
         <v>36472</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>12</v>
       </c>
@@ -1307,7 +1307,7 @@
         <v>3931856</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
         <v>13</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>2002352</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>22</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
         <v>14</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
         <v>16</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="8" t="s">
         <v>17</v>
       </c>
@@ -1427,7 +1427,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>18</v>
       </c>
@@ -1451,7 +1451,7 @@
         <v>27507</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
         <v>19</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="14" t="s">
         <v>20</v>
       </c>
@@ -1497,7 +1497,7 @@
         <v>5998187</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1507,7 +1507,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1517,7 +1517,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1527,7 +1527,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B52" s="7" t="s">
         <v>26</v>
       </c>
@@ -1549,7 +1549,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1559,7 +1559,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="s">
         <v>10</v>
       </c>
@@ -1583,7 +1583,7 @@
         <v>29919606</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
         <v>12</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>198970497</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="s">
         <v>13</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v>185265729</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>22</v>
       </c>
@@ -1655,7 +1655,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="8" t="s">
         <v>14</v>
       </c>
@@ -1679,7 +1679,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
         <v>16</v>
       </c>
@@ -1703,7 +1703,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
         <v>17</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
         <v>18</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>22005600</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="8" t="s">
         <v>19</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1785,7 +1785,7 @@
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1795,7 +1795,7 @@
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1805,7 +1805,7 @@
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
     </row>
-    <row r="66" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B66" s="7" t="s">
         <v>29</v>
       </c>
@@ -1827,7 +1827,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -1837,7 +1837,7 @@
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="8" t="s">
         <v>10</v>
       </c>
@@ -1861,7 +1861,7 @@
         <v>-33207</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>12</v>
       </c>
@@ -1885,7 +1885,7 @@
         <v>-2884219</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="8" t="s">
         <v>13</v>
       </c>
@@ -1909,7 +1909,7 @@
         <v>-1599694</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>22</v>
       </c>
@@ -1933,7 +1933,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="8" t="s">
         <v>14</v>
       </c>
@@ -1957,7 +1957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
         <v>16</v>
       </c>
@@ -1981,7 +1981,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="8" t="s">
         <v>18</v>
       </c>
@@ -2005,7 +2005,7 @@
         <v>-9858</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="14" t="s">
         <v>20</v>
       </c>
@@ -2027,7 +2027,7 @@
         <v>-4526978</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2037,7 +2037,7 @@
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -2047,7 +2047,7 @@
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2057,7 +2057,7 @@
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
     </row>
-    <row r="79" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B79" s="7" t="s">
         <v>30</v>
       </c>
@@ -2079,7 +2079,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2089,7 +2089,7 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
         <v>10</v>
       </c>
@@ -2113,7 +2113,7 @@
         <v>3265</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
         <v>12</v>
       </c>
@@ -2137,7 +2137,7 @@
         <v>1047637</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
         <v>13</v>
       </c>
@@ -2161,7 +2161,7 @@
         <v>402658</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
         <v>22</v>
       </c>
@@ -2185,7 +2185,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>14</v>
       </c>
@@ -2209,7 +2209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
         <v>16</v>
       </c>
@@ -2233,7 +2233,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="8" t="s">
         <v>18</v>
       </c>
@@ -2257,7 +2257,7 @@
         <v>17649</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="14" t="s">
         <v>20</v>
       </c>
